--- a/Hash Table Data.xlsx
+++ b/Hash Table Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Y2\Y2SEM1\Data Structures and Algorithms\CA 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c00192497\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3C2778-0ADD-4CD5-B284-1955B39B0496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0512B9B-23D2-47E0-A876-548464289CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C52795E9-B5BB-43DC-8BB6-32B2515A20CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{C52795E9-B5BB-43DC-8BB6-32B2515A20CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hash Table Data" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -53,29 +51,29 @@
     <t>hannah</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>james</t>
   </si>
   <si>
     <t>frank</t>
   </si>
   <si>
-    <t>dal</t>
-  </si>
-  <si>
     <t>Aaron</t>
   </si>
   <si>
     <t>Adam</t>
+  </si>
+  <si>
+    <t>darius</t>
+  </si>
+  <si>
+    <t>daliah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,17 +582,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F32081-15C1-49D8-8F29-35FFE209E61D}">
   <dimension ref="E6:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="25" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="25" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:25" ht="15">
       <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
@@ -659,7 +657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:25" ht="15">
       <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,16 +674,16 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="Q7" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -693,14 +691,14 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X7" s="6"/>
       <c r="Y7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="8" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:25" ht="15">
       <c r="E8" s="4" t="s">
         <v>2</v>
       </c>

--- a/Hash Table Data.xlsx
+++ b/Hash Table Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c00192497\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data-Structures-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0512B9B-23D2-47E0-A876-548464289CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C2F700-CD29-4F65-B148-A09FCFFDA6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{C52795E9-B5BB-43DC-8BB6-32B2515A20CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C52795E9-B5BB-43DC-8BB6-32B2515A20CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hash Table Data" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -60,20 +62,20 @@
     <t>Aaron</t>
   </si>
   <si>
-    <t>Adam</t>
-  </si>
-  <si>
     <t>darius</t>
   </si>
   <si>
     <t>daliah</t>
+  </si>
+  <si>
+    <t>AdAm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,10 +233,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -582,17 +584,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F32081-15C1-49D8-8F29-35FFE209E61D}">
   <dimension ref="E6:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="25" width="7.75" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="25" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:25" ht="15">
+    <row r="6" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
@@ -657,7 +659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="5:25" ht="15">
+    <row r="7" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
@@ -674,7 +676,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>6</v>
@@ -683,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -695,10 +697,10 @@
       </c>
       <c r="X7" s="6"/>
       <c r="Y7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="8" spans="5:25" ht="15">
+    <row r="8" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
         <v>2</v>
       </c>
